--- a/data_year/zb/文化/文物业基本情况/文物业文物藏品数.xlsx
+++ b/data_year/zb/文化/文物业基本情况/文物业文物藏品数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,1211 +558,941 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13342</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2510414</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1289</v>
+      </c>
       <c r="E2" t="n">
-        <v>68392</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>321186</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1037085</v>
+      </c>
+      <c r="H2" t="n">
+        <v>58649</v>
+      </c>
       <c r="I2" t="n">
-        <v>9813923</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>17552482</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14427</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5693745</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15257</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7267495</v>
+      </c>
+      <c r="N2" t="n">
+        <v>67208</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28642200</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4896</v>
+      </c>
       <c r="Q2" t="n">
-        <v>2038940</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>2149366</v>
+      </c>
+      <c r="R2" t="n">
+        <v>67</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7748943</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2307</v>
+      </c>
       <c r="U2" t="n">
-        <v>570276</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>870223</v>
+      </c>
+      <c r="V2" t="n">
+        <v>64725</v>
+      </c>
+      <c r="W2" t="n">
+        <v>27605115</v>
+      </c>
+      <c r="X2" t="n">
+        <v>24182</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13170546</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13340</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2908666</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1198</v>
+      </c>
       <c r="E3" t="n">
-        <v>53807</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>316031</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1306180</v>
+      </c>
+      <c r="H3" t="n">
+        <v>58959</v>
+      </c>
       <c r="I3" t="n">
-        <v>12856434</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>19023423</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16988</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6464435</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14014</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7135938</v>
+      </c>
+      <c r="N3" t="n">
+        <v>68588</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30185365</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5759</v>
+      </c>
       <c r="Q3" t="n">
-        <v>2185680</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>2252535</v>
+      </c>
+      <c r="R3" t="n">
+        <v>71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7770986</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2601</v>
+      </c>
       <c r="U3" t="n">
-        <v>938761</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>822390</v>
+      </c>
+      <c r="V3" t="n">
+        <v>67366</v>
+      </c>
+      <c r="W3" t="n">
+        <v>28879185</v>
+      </c>
+      <c r="X3" t="n">
+        <v>24246</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13676326</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13320</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2925044</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1448</v>
+      </c>
       <c r="E4" t="n">
-        <v>54279</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>389829</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3609</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3214647</v>
+      </c>
+      <c r="H4" t="n">
+        <v>74537</v>
+      </c>
       <c r="I4" t="n">
-        <v>16199377</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>23180726</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20090</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8670378</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23203</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7956502</v>
+      </c>
+      <c r="N4" t="n">
+        <v>83939</v>
+      </c>
+      <c r="O4" t="n">
+        <v>35054763</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5239</v>
+      </c>
       <c r="Q4" t="n">
-        <v>2416460</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>1767573</v>
+      </c>
+      <c r="R4" t="n">
+        <v>64</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8507934</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2651</v>
+      </c>
       <c r="U4" t="n">
-        <v>953314</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+        <v>1208701</v>
+      </c>
+      <c r="V4" t="n">
+        <v>80330</v>
+      </c>
+      <c r="W4" t="n">
+        <v>31840116</v>
+      </c>
+      <c r="X4" t="n">
+        <v>27326</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15502839</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20138</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2956953</v>
+      </c>
+      <c r="D5" t="n">
+        <v>265</v>
+      </c>
       <c r="E5" t="n">
-        <v>50877</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+        <v>82375</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4374</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8001194</v>
+      </c>
+      <c r="H5" t="n">
+        <v>85707</v>
+      </c>
       <c r="I5" t="n">
-        <v>13024192</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>27191601</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21064</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11937748</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25736</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8583810</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96816</v>
+      </c>
+      <c r="O5" t="n">
+        <v>38408146</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8457</v>
+      </c>
       <c r="Q5" t="n">
-        <v>2342103</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+        <v>1906829</v>
+      </c>
+      <c r="R5" t="n">
+        <v>59</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7632366</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2328</v>
+      </c>
       <c r="U5" t="n">
-        <v>987996</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+        <v>1594975</v>
+      </c>
+      <c r="V5" t="n">
+        <v>92442</v>
+      </c>
+      <c r="W5" t="n">
+        <v>30406952</v>
+      </c>
+      <c r="X5" t="n">
+        <v>29878</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>14929635</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20197</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3160790</v>
+      </c>
+      <c r="D6" t="n">
+        <v>281</v>
+      </c>
       <c r="E6" t="n">
-        <v>443969</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>83097</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5837</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8658600</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89532</v>
+      </c>
       <c r="I6" t="n">
-        <v>13760448</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>29299673</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22391</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13122309</v>
+      </c>
+      <c r="L6" t="n">
+        <v>24773</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8983044</v>
+      </c>
+      <c r="N6" t="n">
+        <v>98236</v>
+      </c>
+      <c r="O6" t="n">
+        <v>40635827</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7006</v>
+      </c>
       <c r="Q6" t="n">
-        <v>2255038</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+        <v>2092332</v>
+      </c>
+      <c r="R6" t="n">
+        <v>60</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7700873</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1357</v>
+      </c>
       <c r="U6" t="n">
-        <v>784495</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+        <v>1459852</v>
+      </c>
+      <c r="V6" t="n">
+        <v>92399</v>
+      </c>
+      <c r="W6" t="n">
+        <v>31977227</v>
+      </c>
+      <c r="X6" t="n">
+        <v>30875</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15369684</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11060</v>
+        <v>21029</v>
       </c>
       <c r="C7" t="n">
-        <v>1260514</v>
+        <v>3282593</v>
       </c>
       <c r="D7" t="n">
-        <v>201</v>
+        <v>1244</v>
       </c>
       <c r="E7" t="n">
-        <v>17322</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>415958</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12826</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9688496</v>
+      </c>
       <c r="H7" t="n">
-        <v>51241</v>
+        <v>98364</v>
       </c>
       <c r="I7" t="n">
-        <v>14554158</v>
+        <v>30441422</v>
       </c>
       <c r="J7" t="n">
-        <v>12683</v>
+        <v>30402</v>
       </c>
       <c r="K7" t="n">
-        <v>4559634</v>
+        <v>14239781</v>
       </c>
       <c r="L7" t="n">
-        <v>14085</v>
+        <v>26401</v>
       </c>
       <c r="M7" t="n">
-        <v>7681454</v>
+        <v>8650851</v>
       </c>
       <c r="N7" t="n">
-        <v>59365</v>
+        <v>108692</v>
       </c>
       <c r="O7" t="n">
-        <v>25738228</v>
+        <v>41388558</v>
       </c>
       <c r="P7" t="n">
-        <v>5235</v>
+        <v>7658</v>
       </c>
       <c r="Q7" t="n">
-        <v>2187639</v>
+        <v>2073474</v>
       </c>
       <c r="R7" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="S7" t="n">
-        <v>8200305</v>
+        <v>7280219</v>
       </c>
       <c r="T7" t="n">
-        <v>2604</v>
+        <v>1367</v>
       </c>
       <c r="U7" t="n">
-        <v>778804</v>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+        <v>1177485</v>
+      </c>
+      <c r="V7" t="n">
+        <v>95866</v>
+      </c>
+      <c r="W7" t="n">
+        <v>31700062</v>
+      </c>
       <c r="X7" t="n">
-        <v>21537</v>
+        <v>30860</v>
       </c>
       <c r="Y7" t="n">
-        <v>12236626</v>
+        <v>15215333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15078</v>
+        <v>22630</v>
       </c>
       <c r="C8" t="n">
-        <v>2162318</v>
+        <v>3324574</v>
       </c>
       <c r="D8" t="n">
-        <v>2487</v>
+        <v>1460</v>
       </c>
       <c r="E8" t="n">
-        <v>587279</v>
+        <v>558972</v>
       </c>
       <c r="F8" t="n">
-        <v>1021</v>
+        <v>11851</v>
       </c>
       <c r="G8" t="n">
-        <v>841042</v>
+        <v>11522550</v>
       </c>
       <c r="H8" t="n">
-        <v>56277</v>
+        <v>98832</v>
       </c>
       <c r="I8" t="n">
-        <v>15711150</v>
+        <v>33293561</v>
       </c>
       <c r="J8" t="n">
-        <v>15305</v>
+        <v>31098</v>
       </c>
       <c r="K8" t="n">
-        <v>5310702</v>
+        <v>17199790</v>
       </c>
       <c r="L8" t="n">
-        <v>13676</v>
+        <v>23683</v>
       </c>
       <c r="M8" t="n">
-        <v>6586064</v>
+        <v>9219349</v>
       </c>
       <c r="N8" t="n">
-        <v>66818</v>
+        <v>109768</v>
       </c>
       <c r="O8" t="n">
-        <v>26802714</v>
+        <v>44558807</v>
       </c>
       <c r="P8" t="n">
-        <v>5388</v>
+        <v>7721</v>
       </c>
       <c r="Q8" t="n">
-        <v>1958904</v>
+        <v>2521238</v>
       </c>
       <c r="R8" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="S8" t="n">
-        <v>7616192</v>
+        <v>6997098</v>
       </c>
       <c r="T8" t="n">
-        <v>2582</v>
+        <v>1703</v>
       </c>
       <c r="U8" t="n">
-        <v>929189</v>
+        <v>1187938</v>
       </c>
       <c r="V8" t="n">
-        <v>65797</v>
+        <v>97917</v>
       </c>
       <c r="W8" t="n">
-        <v>25961672</v>
+        <v>33036257</v>
       </c>
       <c r="X8" t="n">
-        <v>22759</v>
+        <v>32357</v>
       </c>
       <c r="Y8" t="n">
-        <v>12743630</v>
+        <v>14815094</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13342</v>
+        <v>22630</v>
       </c>
       <c r="C9" t="n">
-        <v>2510414</v>
+        <v>3337506</v>
       </c>
       <c r="D9" t="n">
-        <v>1289</v>
+        <v>1916</v>
       </c>
       <c r="E9" t="n">
-        <v>321186</v>
+        <v>788276</v>
       </c>
       <c r="F9" t="n">
-        <v>2483</v>
+        <v>5024</v>
       </c>
       <c r="G9" t="n">
-        <v>1037085</v>
+        <v>12343535</v>
       </c>
       <c r="H9" t="n">
-        <v>58649</v>
+        <v>89921</v>
       </c>
       <c r="I9" t="n">
-        <v>17552482</v>
+        <v>36623080</v>
       </c>
       <c r="J9" t="n">
-        <v>14427</v>
+        <v>23655</v>
       </c>
       <c r="K9" t="n">
-        <v>5693745</v>
+        <v>18791175</v>
       </c>
       <c r="L9" t="n">
-        <v>15257</v>
+        <v>23243</v>
       </c>
       <c r="M9" t="n">
-        <v>7267495</v>
+        <v>9561239</v>
       </c>
       <c r="N9" t="n">
-        <v>67208</v>
+        <v>100650</v>
       </c>
       <c r="O9" t="n">
-        <v>28642200</v>
+        <v>48506647</v>
       </c>
       <c r="P9" t="n">
-        <v>4896</v>
+        <v>7211</v>
       </c>
       <c r="Q9" t="n">
-        <v>2149366</v>
+        <v>2473352</v>
       </c>
       <c r="R9" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="S9" t="n">
-        <v>7748943</v>
+        <v>7391751</v>
       </c>
       <c r="T9" t="n">
-        <v>2307</v>
+        <v>1550</v>
       </c>
       <c r="U9" t="n">
-        <v>870223</v>
+        <v>1230188</v>
       </c>
       <c r="V9" t="n">
-        <v>64725</v>
+        <v>95626</v>
       </c>
       <c r="W9" t="n">
-        <v>27605115</v>
+        <v>36163112</v>
       </c>
       <c r="X9" t="n">
-        <v>24182</v>
+        <v>31122</v>
       </c>
       <c r="Y9" t="n">
-        <v>13170546</v>
+        <v>16816727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13340</v>
+        <v>14941</v>
       </c>
       <c r="C10" t="n">
-        <v>2908666</v>
+        <v>3397457</v>
       </c>
       <c r="D10" t="n">
-        <v>1198</v>
+        <v>1331</v>
       </c>
       <c r="E10" t="n">
-        <v>316031</v>
+        <v>803616</v>
       </c>
       <c r="F10" t="n">
-        <v>1222</v>
+        <v>4806</v>
       </c>
       <c r="G10" t="n">
-        <v>1306180</v>
+        <v>12185731</v>
       </c>
       <c r="H10" t="n">
-        <v>58959</v>
+        <v>84201</v>
       </c>
       <c r="I10" t="n">
-        <v>19023423</v>
+        <v>37540740</v>
       </c>
       <c r="J10" t="n">
-        <v>16988</v>
+        <v>26775</v>
       </c>
       <c r="K10" t="n">
-        <v>6464435</v>
+        <v>19122911</v>
       </c>
       <c r="L10" t="n">
-        <v>14014</v>
+        <v>23098</v>
       </c>
       <c r="M10" t="n">
-        <v>7135938</v>
+        <v>9819563</v>
       </c>
       <c r="N10" t="n">
-        <v>68588</v>
+        <v>95607</v>
       </c>
       <c r="O10" t="n">
-        <v>30185365</v>
+        <v>49604379</v>
       </c>
       <c r="P10" t="n">
-        <v>5759</v>
+        <v>8405</v>
       </c>
       <c r="Q10" t="n">
-        <v>2252535</v>
+        <v>2430379</v>
       </c>
       <c r="R10" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="S10" t="n">
-        <v>7770986</v>
+        <v>7513985</v>
       </c>
       <c r="T10" t="n">
-        <v>2601</v>
+        <v>1617</v>
       </c>
       <c r="U10" t="n">
-        <v>822390</v>
+        <v>1315659</v>
       </c>
       <c r="V10" t="n">
-        <v>67366</v>
+        <v>90801</v>
       </c>
       <c r="W10" t="n">
-        <v>28879185</v>
+        <v>37418648</v>
       </c>
       <c r="X10" t="n">
-        <v>24246</v>
+        <v>30793</v>
       </c>
       <c r="Y10" t="n">
-        <v>13676326</v>
+        <v>17264448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13320</v>
+        <v>14941</v>
       </c>
       <c r="C11" t="n">
-        <v>2925044</v>
+        <v>3338663</v>
       </c>
       <c r="D11" t="n">
-        <v>1448</v>
+        <v>1335</v>
       </c>
       <c r="E11" t="n">
-        <v>389829</v>
+        <v>658837</v>
       </c>
       <c r="F11" t="n">
-        <v>3609</v>
+        <v>5609</v>
       </c>
       <c r="G11" t="n">
-        <v>3214647</v>
+        <v>12595788</v>
       </c>
       <c r="H11" t="n">
-        <v>74537</v>
+        <v>79265</v>
       </c>
       <c r="I11" t="n">
-        <v>23180726</v>
+        <v>39548334</v>
       </c>
       <c r="J11" t="n">
-        <v>20090</v>
+        <v>26757</v>
       </c>
       <c r="K11" t="n">
-        <v>8670378</v>
+        <v>19244895</v>
       </c>
       <c r="L11" t="n">
-        <v>23203</v>
+        <v>17652</v>
       </c>
       <c r="M11" t="n">
-        <v>7956502</v>
+        <v>10235089</v>
       </c>
       <c r="N11" t="n">
-        <v>83939</v>
+        <v>90551</v>
       </c>
       <c r="O11" t="n">
-        <v>35054763</v>
+        <v>51293830</v>
       </c>
       <c r="P11" t="n">
-        <v>5239</v>
+        <v>8177</v>
       </c>
       <c r="Q11" t="n">
-        <v>1767573</v>
+        <v>1659712</v>
       </c>
       <c r="R11" t="n">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="S11" t="n">
-        <v>8507934</v>
+        <v>7904158</v>
       </c>
       <c r="T11" t="n">
-        <v>2651</v>
+        <v>1589</v>
       </c>
       <c r="U11" t="n">
-        <v>1208701</v>
+        <v>1522789</v>
       </c>
       <c r="V11" t="n">
-        <v>80330</v>
+        <v>84942</v>
       </c>
       <c r="W11" t="n">
-        <v>31840116</v>
+        <v>38698042</v>
       </c>
       <c r="X11" t="n">
-        <v>27326</v>
+        <v>31201</v>
       </c>
       <c r="Y11" t="n">
-        <v>15502839</v>
+        <v>18475183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20138</v>
+        <v>14963</v>
       </c>
       <c r="C12" t="n">
-        <v>2956953</v>
+        <v>3389450</v>
       </c>
       <c r="D12" t="n">
-        <v>265</v>
+        <v>2562</v>
       </c>
       <c r="E12" t="n">
-        <v>82375</v>
+        <v>4362990</v>
       </c>
       <c r="F12" t="n">
-        <v>4374</v>
+        <v>5173</v>
       </c>
       <c r="G12" t="n">
-        <v>8001194</v>
+        <v>11888102</v>
       </c>
       <c r="H12" t="n">
-        <v>85707</v>
+        <v>85515</v>
       </c>
       <c r="I12" t="n">
-        <v>27191601</v>
+        <v>43190898</v>
       </c>
       <c r="J12" t="n">
-        <v>21064</v>
+        <v>28687</v>
       </c>
       <c r="K12" t="n">
-        <v>11937748</v>
+        <v>22716927</v>
       </c>
       <c r="L12" t="n">
-        <v>25736</v>
+        <v>17613</v>
       </c>
       <c r="M12" t="n">
-        <v>8583810</v>
+        <v>9794406</v>
       </c>
       <c r="N12" t="n">
-        <v>96816</v>
+        <v>97268</v>
       </c>
       <c r="O12" t="n">
-        <v>38408146</v>
+        <v>50891012</v>
       </c>
       <c r="P12" t="n">
-        <v>8457</v>
+        <v>7544</v>
       </c>
       <c r="Q12" t="n">
-        <v>1906829</v>
-      </c>
-      <c r="R12" t="n">
-        <v>59</v>
-      </c>
-      <c r="S12" t="n">
-        <v>7632366</v>
-      </c>
+        <v>1687721</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>2328</v>
+        <v>1647</v>
       </c>
       <c r="U12" t="n">
-        <v>1594975</v>
+        <v>1649403</v>
       </c>
       <c r="V12" t="n">
-        <v>92442</v>
+        <v>92095</v>
       </c>
       <c r="W12" t="n">
-        <v>30406952</v>
+        <v>39002910</v>
       </c>
       <c r="X12" t="n">
-        <v>29878</v>
+        <v>36005</v>
       </c>
       <c r="Y12" t="n">
-        <v>14929635</v>
+        <v>14990229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20197</v>
+        <v>14963</v>
       </c>
       <c r="C13" t="n">
-        <v>3160790</v>
+        <v>3422992</v>
       </c>
       <c r="D13" t="n">
-        <v>281</v>
+        <v>5076</v>
       </c>
       <c r="E13" t="n">
-        <v>83097</v>
+        <v>6033253</v>
       </c>
       <c r="F13" t="n">
-        <v>5837</v>
+        <v>5060</v>
       </c>
       <c r="G13" t="n">
-        <v>8658600</v>
+        <v>13875036</v>
       </c>
       <c r="H13" t="n">
-        <v>89532</v>
+        <v>85960</v>
       </c>
       <c r="I13" t="n">
-        <v>29299673</v>
+        <v>46648282</v>
       </c>
       <c r="J13" t="n">
-        <v>22391</v>
+        <v>28271</v>
       </c>
       <c r="K13" t="n">
-        <v>13122309</v>
+        <v>25082040</v>
       </c>
       <c r="L13" t="n">
-        <v>24773</v>
+        <v>17562</v>
       </c>
       <c r="M13" t="n">
-        <v>8983044</v>
+        <v>10562711</v>
       </c>
       <c r="N13" t="n">
-        <v>98236</v>
+        <v>99557</v>
       </c>
       <c r="O13" t="n">
-        <v>40635827</v>
+        <v>55804468</v>
       </c>
       <c r="P13" t="n">
-        <v>7006</v>
+        <v>6863</v>
       </c>
       <c r="Q13" t="n">
-        <v>2092332</v>
-      </c>
-      <c r="R13" t="n">
-        <v>60</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7700873</v>
-      </c>
+        <v>1483468</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>1357</v>
+        <v>1658</v>
       </c>
       <c r="U13" t="n">
-        <v>1459852</v>
+        <v>1639465</v>
       </c>
       <c r="V13" t="n">
-        <v>92399</v>
+        <v>94497</v>
       </c>
       <c r="W13" t="n">
-        <v>31977227</v>
+        <v>41929432</v>
       </c>
       <c r="X13" t="n">
-        <v>30875</v>
+        <v>38761</v>
       </c>
       <c r="Y13" t="n">
-        <v>15369684</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>21029</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3282593</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1244</v>
-      </c>
-      <c r="E14" t="n">
-        <v>415958</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12826</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9688496</v>
-      </c>
-      <c r="H14" t="n">
-        <v>98364</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30441422</v>
-      </c>
-      <c r="J14" t="n">
-        <v>30402</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14239781</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26401</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8650851</v>
-      </c>
-      <c r="N14" t="n">
-        <v>108692</v>
-      </c>
-      <c r="O14" t="n">
-        <v>41388558</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7658</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2073474</v>
-      </c>
-      <c r="R14" t="n">
-        <v>59</v>
-      </c>
-      <c r="S14" t="n">
-        <v>7280219</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1367</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1177485</v>
-      </c>
-      <c r="V14" t="n">
-        <v>95866</v>
-      </c>
-      <c r="W14" t="n">
-        <v>31700062</v>
-      </c>
-      <c r="X14" t="n">
-        <v>30860</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>15215333</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>22630</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3324574</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1460</v>
-      </c>
-      <c r="E15" t="n">
-        <v>558972</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11851</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11522550</v>
-      </c>
-      <c r="H15" t="n">
-        <v>98832</v>
-      </c>
-      <c r="I15" t="n">
-        <v>33293561</v>
-      </c>
-      <c r="J15" t="n">
-        <v>31098</v>
-      </c>
-      <c r="K15" t="n">
-        <v>17199790</v>
-      </c>
-      <c r="L15" t="n">
-        <v>23683</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9219349</v>
-      </c>
-      <c r="N15" t="n">
-        <v>109768</v>
-      </c>
-      <c r="O15" t="n">
-        <v>44558807</v>
-      </c>
-      <c r="P15" t="n">
-        <v>7721</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2521238</v>
-      </c>
-      <c r="R15" t="n">
-        <v>52</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6997098</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1703</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1187938</v>
-      </c>
-      <c r="V15" t="n">
-        <v>97917</v>
-      </c>
-      <c r="W15" t="n">
-        <v>33036257</v>
-      </c>
-      <c r="X15" t="n">
-        <v>32357</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>14815094</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>22630</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3337506</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1916</v>
-      </c>
-      <c r="E16" t="n">
-        <v>788276</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5024</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12343535</v>
-      </c>
-      <c r="H16" t="n">
-        <v>89921</v>
-      </c>
-      <c r="I16" t="n">
-        <v>36623080</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23655</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18791175</v>
-      </c>
-      <c r="L16" t="n">
-        <v>23243</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9561239</v>
-      </c>
-      <c r="N16" t="n">
-        <v>100650</v>
-      </c>
-      <c r="O16" t="n">
-        <v>48506647</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7211</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2473352</v>
-      </c>
-      <c r="R16" t="n">
-        <v>52</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7391751</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1550</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1230188</v>
-      </c>
-      <c r="V16" t="n">
-        <v>95626</v>
-      </c>
-      <c r="W16" t="n">
-        <v>36163112</v>
-      </c>
-      <c r="X16" t="n">
-        <v>31122</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>16816727</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14941</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3397457</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1331</v>
-      </c>
-      <c r="E17" t="n">
-        <v>803616</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4806</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12185731</v>
-      </c>
-      <c r="H17" t="n">
-        <v>84201</v>
-      </c>
-      <c r="I17" t="n">
-        <v>37540740</v>
-      </c>
-      <c r="J17" t="n">
-        <v>26775</v>
-      </c>
-      <c r="K17" t="n">
-        <v>19122911</v>
-      </c>
-      <c r="L17" t="n">
-        <v>23098</v>
-      </c>
-      <c r="M17" t="n">
-        <v>9819563</v>
-      </c>
-      <c r="N17" t="n">
-        <v>95607</v>
-      </c>
-      <c r="O17" t="n">
-        <v>49604379</v>
-      </c>
-      <c r="P17" t="n">
-        <v>8405</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2430379</v>
-      </c>
-      <c r="R17" t="n">
-        <v>53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7513985</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1617</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1315659</v>
-      </c>
-      <c r="V17" t="n">
-        <v>90801</v>
-      </c>
-      <c r="W17" t="n">
-        <v>37418648</v>
-      </c>
-      <c r="X17" t="n">
-        <v>30793</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>17264448</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14941</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3338663</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1335</v>
-      </c>
-      <c r="E18" t="n">
-        <v>658837</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5609</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12595788</v>
-      </c>
-      <c r="H18" t="n">
-        <v>79265</v>
-      </c>
-      <c r="I18" t="n">
-        <v>39548334</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26757</v>
-      </c>
-      <c r="K18" t="n">
-        <v>19244895</v>
-      </c>
-      <c r="L18" t="n">
-        <v>17652</v>
-      </c>
-      <c r="M18" t="n">
-        <v>10235089</v>
-      </c>
-      <c r="N18" t="n">
-        <v>90551</v>
-      </c>
-      <c r="O18" t="n">
-        <v>51293830</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8177</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1659712</v>
-      </c>
-      <c r="R18" t="n">
-        <v>185</v>
-      </c>
-      <c r="S18" t="n">
-        <v>7904158</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1589</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1522789</v>
-      </c>
-      <c r="V18" t="n">
-        <v>84942</v>
-      </c>
-      <c r="W18" t="n">
-        <v>38698042</v>
-      </c>
-      <c r="X18" t="n">
-        <v>31201</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>18475183</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>14963</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3389450</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2562</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4362990</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5173</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11888102</v>
-      </c>
-      <c r="H19" t="n">
-        <v>85515</v>
-      </c>
-      <c r="I19" t="n">
-        <v>43190898</v>
-      </c>
-      <c r="J19" t="n">
-        <v>28687</v>
-      </c>
-      <c r="K19" t="n">
-        <v>22716927</v>
-      </c>
-      <c r="L19" t="n">
-        <v>17613</v>
-      </c>
-      <c r="M19" t="n">
-        <v>9794406</v>
-      </c>
-      <c r="N19" t="n">
-        <v>97268</v>
-      </c>
-      <c r="O19" t="n">
-        <v>50891012</v>
-      </c>
-      <c r="P19" t="n">
-        <v>7544</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1687721</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>1647</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1649403</v>
-      </c>
-      <c r="V19" t="n">
-        <v>92095</v>
-      </c>
-      <c r="W19" t="n">
-        <v>39002910</v>
-      </c>
-      <c r="X19" t="n">
-        <v>36005</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>14990229</v>
+        <v>16736725</v>
       </c>
     </row>
   </sheetData>
